--- a/test/concurrency/results-edit.xlsx
+++ b/test/concurrency/results-edit.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Uni\Master\Thesis\suturis\test\concurrency\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5eb739323b474664/Uni/Master/Thesis/suturis/test/concurrency/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6546621-39CB-4AEB-B63D-0563FE20D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{A6546621-39CB-4AEB-B63D-0563FE20D50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{242CD4F0-D65C-42BE-85E7-993D81F6D1CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="606" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="results" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">results!$A$1:$J$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$1:$C$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="23">
   <si>
     <t>MODULE</t>
   </si>
@@ -999,23 +1001,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1047,7 +1051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1076,11 +1080,11 @@
         <v>3.5959999999999998E-3</v>
       </c>
       <c r="J2" s="1">
-        <f>H2+I2</f>
+        <f t="shared" ref="J2:J37" si="0">H2+I2</f>
         <v>2.4020999999999997E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1109,7 +1113,7 @@
         <v>3.323E-3</v>
       </c>
       <c r="J3" s="1">
-        <f>H3+I3</f>
+        <f t="shared" si="0"/>
         <v>4.2103000000000002E-2</v>
       </c>
     </row>
@@ -1142,11 +1146,11 @@
         <v>5.8931999999999998E-2</v>
       </c>
       <c r="J4" s="1">
-        <f>H4+I4</f>
+        <f t="shared" si="0"/>
         <v>7.1785000000000002E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1175,11 +1179,11 @@
         <v>3.2919999999999998E-3</v>
       </c>
       <c r="J5" s="2">
-        <f>H5+I5</f>
+        <f t="shared" si="0"/>
         <v>0.100841</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1208,11 +1212,11 @@
         <v>0.30287500000000001</v>
       </c>
       <c r="J6" s="4">
-        <f>H6+I6</f>
+        <f t="shared" si="0"/>
         <v>0.30677300000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1241,11 +1245,11 @@
         <v>0.31462699999999999</v>
       </c>
       <c r="J7" s="4">
-        <f>H7+I7</f>
+        <f t="shared" si="0"/>
         <v>0.31792999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1274,11 +1278,11 @@
         <v>0.315243</v>
       </c>
       <c r="J8" s="3">
-        <f>H8+I8</f>
+        <f t="shared" si="0"/>
         <v>0.31853999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1307,11 +1311,11 @@
         <v>0.32433499999999998</v>
       </c>
       <c r="J9" s="5">
-        <f>H9+I9</f>
+        <f t="shared" si="0"/>
         <v>0.327963</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1340,11 +1344,11 @@
         <v>0.33010499999999998</v>
       </c>
       <c r="J10" s="3">
-        <f>H10+I10</f>
+        <f t="shared" si="0"/>
         <v>0.33338699999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1373,11 +1377,11 @@
         <v>0.33641500000000002</v>
       </c>
       <c r="J11">
-        <f>H11+I11</f>
+        <f t="shared" si="0"/>
         <v>0.33970700000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1406,11 +1410,11 @@
         <v>0.339036</v>
       </c>
       <c r="J12">
-        <f>H12+I12</f>
+        <f t="shared" si="0"/>
         <v>0.343142</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1439,11 +1443,11 @@
         <v>0.30285800000000002</v>
       </c>
       <c r="J13">
-        <f>H13+I13</f>
+        <f t="shared" si="0"/>
         <v>0.35297300000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1472,11 +1476,11 @@
         <v>0.31429800000000002</v>
       </c>
       <c r="J14" s="3">
-        <f>H14+I14</f>
+        <f t="shared" si="0"/>
         <v>0.36375299999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1505,11 +1509,11 @@
         <v>0.31539499999999998</v>
       </c>
       <c r="J15">
-        <f>H15+I15</f>
+        <f t="shared" si="0"/>
         <v>0.36488399999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
@@ -1538,11 +1542,11 @@
         <v>0.36183700000000002</v>
       </c>
       <c r="J16" s="5">
-        <f>H16+I16</f>
+        <f t="shared" si="0"/>
         <v>0.36540300000000003</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>13</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>0.32148700000000002</v>
       </c>
       <c r="J17" s="5">
-        <f>H17+I17</f>
+        <f t="shared" si="0"/>
         <v>0.37135200000000002</v>
       </c>
     </row>
@@ -1604,7 +1608,7 @@
         <v>0.405497</v>
       </c>
       <c r="J18" s="3">
-        <f>H18+I18</f>
+        <f t="shared" si="0"/>
         <v>0.408613</v>
       </c>
     </row>
@@ -1637,11 +1641,11 @@
         <v>0.40969</v>
       </c>
       <c r="J19" s="5">
-        <f>H19+I19</f>
+        <f t="shared" si="0"/>
         <v>0.41281600000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>12</v>
       </c>
@@ -1670,11 +1674,11 @@
         <v>0.44511499999999998</v>
       </c>
       <c r="J20" s="7">
-        <f>H20+I20</f>
+        <f t="shared" si="0"/>
         <v>0.45133000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
@@ -1703,11 +1707,11 @@
         <v>0.45472600000000002</v>
       </c>
       <c r="J21" s="6">
-        <f>H21+I21</f>
+        <f t="shared" si="0"/>
         <v>0.462561</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>11</v>
       </c>
@@ -1736,11 +1740,11 @@
         <v>0.45579199999999997</v>
       </c>
       <c r="J22" s="6">
-        <f>H22+I22</f>
+        <f t="shared" si="0"/>
         <v>0.46360399999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>8</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>0.46950700000000001</v>
       </c>
       <c r="J23" s="7">
-        <f>H23+I23</f>
+        <f t="shared" si="0"/>
         <v>0.472827</v>
       </c>
     </row>
@@ -1802,11 +1806,11 @@
         <v>0.48871599999999998</v>
       </c>
       <c r="J24">
-        <f>H24+I24</f>
+        <f t="shared" si="0"/>
         <v>0.49180699999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>12</v>
       </c>
@@ -1835,11 +1839,11 @@
         <v>0.44264500000000001</v>
       </c>
       <c r="J25" s="7">
-        <f>H25+I25</f>
+        <f t="shared" si="0"/>
         <v>0.49501800000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>12</v>
       </c>
@@ -1868,7 +1872,7 @@
         <v>0.49246499999999999</v>
       </c>
       <c r="J26" s="7">
-        <f>H26+I26</f>
+        <f t="shared" si="0"/>
         <v>0.49785699999999999</v>
       </c>
     </row>
@@ -1901,11 +1905,11 @@
         <v>0.496583</v>
       </c>
       <c r="J27">
-        <f>H27+I27</f>
+        <f t="shared" si="0"/>
         <v>0.50002100000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>8</v>
       </c>
@@ -1934,11 +1938,11 @@
         <v>0.45349400000000001</v>
       </c>
       <c r="J28" s="7">
-        <f>H28+I28</f>
+        <f t="shared" si="0"/>
         <v>0.50299700000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
@@ -1967,11 +1971,11 @@
         <v>0.45176300000000003</v>
       </c>
       <c r="J29" s="6">
-        <f>H29+I29</f>
+        <f t="shared" si="0"/>
         <v>0.50491200000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
@@ -2000,11 +2004,11 @@
         <v>0.49367</v>
       </c>
       <c r="J30" s="6">
-        <f>H30+I30</f>
+        <f t="shared" si="0"/>
         <v>0.50492999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
@@ -2033,11 +2037,11 @@
         <v>0.49474600000000002</v>
       </c>
       <c r="J31" s="6">
-        <f>H31+I31</f>
+        <f t="shared" si="0"/>
         <v>0.50597100000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>11</v>
       </c>
@@ -2066,11 +2070,11 @@
         <v>0.45328800000000002</v>
       </c>
       <c r="J32" s="6">
-        <f>H32+I32</f>
+        <f t="shared" si="0"/>
         <v>0.506471</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>8</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>0.52256999999999998</v>
       </c>
       <c r="J33" s="7">
-        <f>H33+I33</f>
+        <f t="shared" si="0"/>
         <v>0.52585099999999996</v>
       </c>
     </row>
@@ -2132,7 +2136,7 @@
         <v>0.600186</v>
       </c>
       <c r="J34" s="6">
-        <f>H34+I34</f>
+        <f t="shared" si="0"/>
         <v>0.64172300000000004</v>
       </c>
     </row>
@@ -2165,7 +2169,7 @@
         <v>0.60557700000000003</v>
       </c>
       <c r="J35" s="6">
-        <f>H35+I35</f>
+        <f t="shared" si="0"/>
         <v>0.64551400000000003</v>
       </c>
     </row>
@@ -2198,7 +2202,7 @@
         <v>0.69811100000000004</v>
       </c>
       <c r="J36" s="7">
-        <f>H36+I36</f>
+        <f t="shared" si="0"/>
         <v>0.70533299999999999</v>
       </c>
     </row>
@@ -2231,16 +2235,282 @@
         <v>0.74487000000000003</v>
       </c>
       <c r="J37" s="2">
-        <f>H37+I37</f>
+        <f t="shared" si="0"/>
         <v>0.74797200000000008</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:J37" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="0.5"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J37">
       <sortCondition ref="J1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F054EB46-D98A-4A2C-A73B-9EFEFF9219B2}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1.2853E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.8931999999999998E-2</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F13" si="0">D2+E2</f>
+        <v>7.1785000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9.7548999999999997E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3.2919999999999998E-3</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.100841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3.1159999999999998E-3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.405497</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.408613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.1259999999999999E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.40969</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0.41281600000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>0.1</v>
+      </c>
+      <c r="D7">
+        <v>3.091E-3</v>
+      </c>
+      <c r="E7">
+        <v>0.48871599999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.49180699999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>0.1</v>
+      </c>
+      <c r="D8">
+        <v>3.4380000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.496583</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="1">D8+E8</f>
+        <v>0.50002100000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.1536999999999998E-2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.600186</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64172300000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>3.9937E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.60557700000000003</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64551400000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>7.2220000000000001E-3</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.69811100000000004</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.70533299999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.1020000000000002E-3</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.74487000000000003</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.74797200000000008</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>